--- a/RE-Framework_RPA06_부동산공시가격_박채연/Data/Config.xlsx
+++ b/RE-Framework_RPA06_부동산공시가격_박채연/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ICT CoC\Documents\REFramework\RE-Framework_RPA06_부동산공시가격_박채연\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D61F016-E27E-4F44-AA1A-DCDC64E15A49}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F119AD-3682-4774-A8DE-B002C3BCCA13}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>Description (Assets will always overwrite other config)</t>
-  </si>
-  <si>
-    <t>MaxRetryNumber</t>
   </si>
   <si>
     <t>ExScreenshotsFolderPath</t>
@@ -478,9 +475,66 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>부동산공시가격_박채연.xlsx</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>RE-Framework RPA06 부동산공시가격</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="3"/>
+      </rPr>
+      <t>❤️❤️</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">RE-Framework RPA06 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>부동산공시가격</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="3"/>
+      </rPr>
+      <t>❤️❤️</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.realtyprice.kr/notice/town/searchPastYear.htm</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>회원목록</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MaxRetryNumber</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>{0}=날짜
 {1}=과제명 dicConfig("과제명").ToString
-{2}=결과시트 링크
+{2}=strFail
 {3}=intTotalCnt
 {4}=intSuccessCnt
 {5}=intFailCnt
@@ -489,8 +543,13 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>부동산공시가격_추가데이터.xlsx</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <r>
-      <t>&lt;p&gt;&lt;span style="font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt;"&gt;</t>
+      <t>&lt;p&gt;
+&lt;span style="font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt;"&gt;</t>
     </r>
     <r>
       <rPr>
@@ -532,31 +591,11 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>&amp;nbsp;결과 안내 메일입니다.&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;&lt;span style="font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt;"&gt;결과 데이터를&amp;nbsp;확인하여 주시기 바랍니다.&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;&lt;span style="font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt;"&gt;감사합니다.&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;&lt;span style="font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt;"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{2}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;/span&gt;&lt;/p&gt;
+      <t>&amp;nbsp;결과 안내 메일입니다.&lt;/span&gt;&lt;br&gt;
+&lt;span style="font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt;"&gt;결과 데이터를&amp;nbsp;확인하여 주시기 바랍니다.&lt;/span&gt;&lt;br&gt;
+&lt;span style="font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt;"&gt;감사합니다.&lt;/span&gt;&lt;br&gt;
+&lt;/p&gt;
+&lt;br&gt;
 &lt;table cellspacing="0" cellpadding="0" border="1" style="width: 776px; height: 60px; font-size: 10pt; border-width: 0px; border-color: rgb(0, 0, 0); border-collapse: collapse; border-style: solid; background-color: rgb(255, 255, 255); background-image: none; background-repeat: repeat; background-position: 0% 0%;" class=""&gt;
 &lt;tbody&gt;
 &lt;tr&gt;
@@ -664,35 +703,16 @@
       <t>&lt;/span&gt;&lt;/p&gt;&lt;/td&gt;
 &lt;/tr&gt;
 &lt;/table&gt;
-&lt;br&gt;&lt;br&gt;
-{7}</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>부동산공시가격_박채연.xlsx</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>RE-Framework RPA06 부동산공시가격</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Segoe UI Emoji"/>
-        <family val="3"/>
-      </rPr>
-      <t>❤️❤️</t>
+&lt;H3 style="font-family: &amp;quot;Malgun Gothic&amp;quot; font-weight: bold; font-size: 12pt;"&gt;</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Calibri"/>
+        <rFont val="맑은 고딕"/>
         <family val="3"/>
+        <charset val="129"/>
       </rPr>
-      <t xml:space="preserve">RE-Framework RPA06 </t>
+      <t>※</t>
     </r>
     <r>
       <rPr>
@@ -702,29 +722,11 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>부동산공시가격</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Segoe UI Emoji"/>
-        <family val="3"/>
-      </rPr>
-      <t>❤️❤️</t>
+      <t>미처리 건 : {2} &lt;/H3&gt;
+&lt;br&gt;&lt;br&gt;
+{7}</t>
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.realtyprice.kr/notice/town/searchPastYear.htm</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>회원목록</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>부동산공시가격_Temp.xlsx</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>rpa.sj.jeong@gmail.com</t>
@@ -735,7 +737,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -842,6 +844,12 @@
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1012,6 +1020,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1021,7 +1030,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1387,256 +1395,256 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C4" s="4" t="s">
+    </row>
+    <row r="5" spans="1:26">
+      <c r="A5" s="29" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:26">
-      <c r="A5" s="28" t="s">
+      <c r="B5" s="29"/>
+      <c r="C5" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:26">
       <c r="A6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="4" t="s">
+    </row>
+    <row r="7" spans="1:26">
+      <c r="A7" s="29" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="7" spans="1:26">
-      <c r="A7" s="28" t="s">
+      <c r="B7" s="29"/>
+      <c r="C7" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="7" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:26">
       <c r="A8" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>104</v>
-      </c>
     </row>
     <row r="9" spans="1:26">
-      <c r="A9" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="28"/>
+      <c r="A9" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="29"/>
       <c r="C9" s="7"/>
     </row>
     <row r="10" spans="1:26">
       <c r="A10" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:26">
       <c r="A11" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:26">
       <c r="A12" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C12" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="A13" s="29" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="13" spans="1:26">
-      <c r="A13" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="28"/>
+      <c r="B13" s="29"/>
       <c r="C13" s="7"/>
     </row>
     <row r="14" spans="1:26">
       <c r="A14" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="A15" s="29" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="15" spans="1:26">
-      <c r="A15" s="28" t="s">
+      <c r="B15" s="29"/>
+      <c r="C15" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" ht="16.5">
+    </row>
+    <row r="16" spans="1:26">
       <c r="A16" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B16" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" s="28" t="s">
         <v>118</v>
       </c>
       <c r="C16" s="4"/>
     </row>
     <row r="17" spans="1:3" ht="16.5">
       <c r="A17" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="13"/>
     </row>
     <row r="18" spans="1:3" ht="40.5">
       <c r="A18" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="409.5">
       <c r="A19" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="67.5">
       <c r="A20" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="C20" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="4" t="s">
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="29" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" s="28"/>
+      <c r="B21" s="29"/>
       <c r="C21" s="7"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C22" s="4"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="30" t="s">
         <v>58</v>
-      </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="29" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" s="30"/>
+      <c r="C26" s="31"/>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="11"/>
+      <c r="C27" s="30" t="s">
         <v>62</v>
-      </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="29" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B28" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="30"/>
+      <c r="C28" s="31"/>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="15"/>
@@ -1650,22 +1658,22 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="27">
       <c r="A32" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1680,11 +1688,8 @@
     <mergeCell ref="A13:B13"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <hyperlinks>
-    <hyperlink ref="B16" r:id="rId1" xr:uid="{29707289-C54C-49A5-8580-2FA422888E3F}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1693,7 +1698,7 @@
   <dimension ref="A1:C988"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -1722,57 +1727,57 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="19" t="s">
-        <v>5</v>
+        <v>114</v>
       </c>
       <c r="B3" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="25.5">
       <c r="A4" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="23">
         <v>0</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B5" s="20">
         <v>5000</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B6" s="20">
         <v>30000</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B7" s="20">
         <v>120000</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1782,13 +1787,13 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>6</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1798,35 +1803,35 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B11" s="20">
         <v>1000</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B12" s="20">
         <v>15000</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B13" s="20">
         <v>60000</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1836,35 +1841,35 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B15" s="20">
         <v>0.6</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B16" s="20">
         <v>0.8</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B17" s="20">
         <v>0.9</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1874,101 +1879,101 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B19" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="19" t="s">
         <v>87</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" s="19" t="s">
         <v>9</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="19" t="s">
-        <v>12</v>
-      </c>
       <c r="C21" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="19" t="s">
-        <v>14</v>
-      </c>
       <c r="C22" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="19" t="s">
-        <v>16</v>
-      </c>
       <c r="C23" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25" s="20">
         <v>2</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26" s="20">
         <v>2</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="25.5">
       <c r="A27" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="20" t="b">
         <v>0</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2014,7 +2019,7 @@
     <row r="36" spans="1:3">
       <c r="A36"/>
       <c r="B36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36"/>
     </row>
@@ -3016,7 +3021,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
